--- a/OnBoard/output/trust/catch/Catch_Trust_2.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_2.xlsx
@@ -1392,7 +1392,7 @@
         <v>0.032</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25">
         <v>10.30866666666667</v>
@@ -1474,7 +1474,7 @@
         <v>0.031</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27">
         <v>10.30866666666667</v>
@@ -2007,7 +2007,7 @@
         <v>0.302</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
         <v>10.30866666666667</v>
@@ -2171,7 +2171,7 @@
         <v>0.171</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44">
         <v>10.30866666666667</v>
